--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/150.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/150.xlsx
@@ -479,13 +479,13 @@
         <v>-6.80356448645589</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.405107213947007</v>
+        <v>-10.10859592254147</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.803572168709592</v>
+        <v>-1.639433967982872</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.021136156204864</v>
+        <v>-9.572911259469409</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.887461118198854</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.12505294721352</v>
+        <v>-10.76678526330357</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.819963731867433</v>
+        <v>-1.678278830514273</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.067692385110043</v>
+        <v>-9.675672744474117</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.998074585838702</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.68692221596904</v>
+        <v>-11.17145525183848</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.626511865078089</v>
+        <v>-1.439252657532881</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.50357124026575</v>
+        <v>-9.218227683184208</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.115868488575857</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.40392218109617</v>
+        <v>-11.91951015930618</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.666731419407871</v>
+        <v>-1.582783573586723</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.094332038039076</v>
+        <v>-9.029593783840619</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.240649656881759</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.19499839570178</v>
+        <v>-12.60590032038935</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.696791346732474</v>
+        <v>-1.559060320837516</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.984867293979404</v>
+        <v>-8.931375327921989</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.371184704951933</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.9146299137001</v>
+        <v>-13.31047569011968</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.587771740969421</v>
+        <v>-1.342016124327381</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.41899178055432</v>
+        <v>-8.506399177679562</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.492605324384414</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.69452530167888</v>
+        <v>-13.99195623763721</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.524404995215467</v>
+        <v>-1.153120378926957</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.144917512865626</v>
+        <v>-8.392613973682121</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.602379042770257</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.30418147580669</v>
+        <v>-14.58759055542154</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.509964185181043</v>
+        <v>-1.168490742463144</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.813983373935316</v>
+        <v>-7.953851628547355</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.684352069463847</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.29594960067313</v>
+        <v>-15.5181521645029</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.435704643462773</v>
+        <v>-1.03807831385671</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.661732984188884</v>
+        <v>-7.825455414578547</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.722669301813706</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.97737777897928</v>
+        <v>-16.28326634257337</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.377182049760257</v>
+        <v>-0.9958032679807768</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.591623702471441</v>
+        <v>-7.77799581677729</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.711163457022215</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.81563865302648</v>
+        <v>-17.1137242041269</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.261511554153607</v>
+        <v>-0.8689650380501347</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.153450510964553</v>
+        <v>-7.290765766522455</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.634995169431193</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.41458532342976</v>
+        <v>-17.75044216822856</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.262349461535478</v>
+        <v>-0.9645912180061019</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.847954716455717</v>
+        <v>-6.917517304807686</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.504913343114733</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.47257431606965</v>
+        <v>-18.82714006162927</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.986141148483583</v>
+        <v>-0.664201421605539</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.437131345585194</v>
+        <v>-6.454612753232778</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.330188409499732</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.25381821124112</v>
+        <v>-19.61152610948276</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8385908954573302</v>
+        <v>-0.5207752439744299</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.150108790386033</v>
+        <v>-6.107522712595777</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.127227928273117</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.22000397635482</v>
+        <v>-20.66751197978786</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5291935947016597</v>
+        <v>-0.2003280396203427</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.735776682353929</v>
+        <v>-5.741566663563851</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.923899571595982</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.13886106669569</v>
+        <v>-21.66231751891358</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3751757440715943</v>
+        <v>-0.03113620999671667</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.510929473350125</v>
+        <v>-5.412282154791598</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.731996032889264</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.83628803907443</v>
+        <v>-22.40671967388844</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1502368889478987</v>
+        <v>0.1899404157886697</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.388450980265779</v>
+        <v>-5.242029848637793</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.57678586032406</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.55311780426462</v>
+        <v>-23.17103522148556</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1470762162848586</v>
+        <v>0.4606630539498814</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.060514978686223</v>
+        <v>-4.878927921625362</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.469707924636838</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.11849581018172</v>
+        <v>-23.7441115014736</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5209531085360299</v>
+        <v>0.7742760762205876</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.769381440394761</v>
+        <v>-4.534613449190808</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.414819614484207</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.9257541110997</v>
+        <v>-24.67273544973439</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7581594514224228</v>
+        <v>1.040193839238886</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.855607346910369</v>
+        <v>-4.612800681761596</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.420782199936598</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.69562079510172</v>
+        <v>-25.49520700655446</v>
       </c>
       <c r="F22" t="n">
-        <v>1.194015305326325</v>
+        <v>1.510849034096096</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.912218464397992</v>
+        <v>-4.612093697408143</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.474043043722316</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.99200434683272</v>
+        <v>-25.78609179109193</v>
       </c>
       <c r="F23" t="n">
-        <v>1.390347478740849</v>
+        <v>1.684950477285369</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.759064705755481</v>
+        <v>-4.364243312311427</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.571497358196967</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.51488473772557</v>
+        <v>-26.37985390956989</v>
       </c>
       <c r="F24" t="n">
-        <v>1.436484753955092</v>
+        <v>1.723075263160476</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.905043882440726</v>
+        <v>-4.435072670685164</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.698874038150827</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.82586620712509</v>
+        <v>-26.69918826818243</v>
       </c>
       <c r="F25" t="n">
-        <v>1.712208651801843</v>
+        <v>1.961590836331041</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.901574422187669</v>
+        <v>-4.424664289925992</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.836939631924271</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.95825557346063</v>
+        <v>-26.91767261800516</v>
       </c>
       <c r="F26" t="n">
-        <v>1.739545380135367</v>
+        <v>1.8974123678009</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.105526315856078</v>
+        <v>-4.581261324215878</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.979192348987818</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.00689347851764</v>
+        <v>-26.88701044474983</v>
       </c>
       <c r="F27" t="n">
-        <v>1.836297498135723</v>
+        <v>2.063265660199886</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.083806185441654</v>
+        <v>-4.529834758653578</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.105251629080166</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.93305289049031</v>
+        <v>-26.69163400944275</v>
       </c>
       <c r="F28" t="n">
-        <v>1.860413519970182</v>
+        <v>2.00094629867327</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.962401261190328</v>
+        <v>-4.429128765195021</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.209251340312821</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.96235346425009</v>
+        <v>-26.8368276479575</v>
       </c>
       <c r="F29" t="n">
-        <v>1.90477024199795</v>
+        <v>2.018751830538017</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.214205521745246</v>
+        <v>-4.643593778045336</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.282204262376788</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.881875078682</v>
+        <v>-26.82981017363433</v>
       </c>
       <c r="F30" t="n">
-        <v>1.876412314042772</v>
+        <v>1.994976208577443</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.508651412655665</v>
+        <v>-5.008829750420968</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.312800718450782</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.54465663438766</v>
+        <v>-26.44827428422075</v>
       </c>
       <c r="F31" t="n">
-        <v>1.912520885280252</v>
+        <v>2.023517428772406</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.674452335843284</v>
+        <v>-5.184947408247867</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.303351166070783</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.1566007781589</v>
+        <v>-26.13434704668184</v>
       </c>
       <c r="F32" t="n">
-        <v>1.964366404533487</v>
+        <v>2.048261881143268</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.932265963402553</v>
+        <v>-5.455735507923287</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.245017340949687</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.00332918879081</v>
+        <v>-26.02976573158213</v>
       </c>
       <c r="F33" t="n">
-        <v>1.863896072526081</v>
+        <v>1.894505876570037</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.995253032374098</v>
+        <v>-5.467322195938214</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.141363817350737</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.40510259504382</v>
+        <v>-25.3717204061513</v>
       </c>
       <c r="F34" t="n">
-        <v>1.662248424157816</v>
+        <v>1.76368758657551</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.032186418690607</v>
+        <v>-5.468526687799653</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.994296069325017</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.03303244058481</v>
+        <v>-25.02532425756491</v>
       </c>
       <c r="F35" t="n">
-        <v>1.573639718525014</v>
+        <v>1.635985264657314</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.050816765634384</v>
+        <v>-5.481579713732854</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.802916472323824</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.49683717770192</v>
+        <v>-24.55888478422274</v>
       </c>
       <c r="F36" t="n">
-        <v>1.477699323300846</v>
+        <v>1.59757244811969</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.848985825026334</v>
+        <v>-5.336490813640846</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.579787103844372</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.8113111086063</v>
+        <v>-23.86919536282345</v>
       </c>
       <c r="F37" t="n">
-        <v>1.448032165061494</v>
+        <v>1.574713287358036</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.842020719914536</v>
+        <v>-5.351730254148615</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.32620191311853</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.29289519298247</v>
+        <v>-23.32655868694243</v>
       </c>
       <c r="F38" t="n">
-        <v>1.247418808617726</v>
+        <v>1.315354768063443</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.570316159040195</v>
+        <v>-5.027014959068126</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.054631226582214</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.83827806910638</v>
+        <v>-22.89068974073568</v>
       </c>
       <c r="F39" t="n">
-        <v>1.204986655107692</v>
+        <v>1.343686511412938</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.34925262555765</v>
+        <v>-4.800020612398279</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.775127087724901</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.25091808671802</v>
+        <v>-22.31050434030459</v>
       </c>
       <c r="F40" t="n">
-        <v>1.177807034408269</v>
+        <v>1.418653037484661</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.482453714669371</v>
+        <v>-4.927487272865323</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.491507534822738</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.57526361396506</v>
+        <v>-21.59311160609221</v>
       </c>
       <c r="F41" t="n">
-        <v>1.208102623184023</v>
+        <v>1.509330326966456</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.287182017785027</v>
+        <v>-4.730827791879756</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.218443851127214</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.90010664872009</v>
+        <v>-20.92078257826105</v>
       </c>
       <c r="F42" t="n">
-        <v>1.093793727072912</v>
+        <v>1.450441148784372</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.462461768230056</v>
+        <v>-4.940121345107589</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.957222193901478</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.2545644725031</v>
+        <v>-20.3199637085514</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9722578797931692</v>
+        <v>1.288450085723696</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.592913473745014</v>
+        <v>-5.123950369308266</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.71761091045139</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.53037683311587</v>
+        <v>-19.56685517218679</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9633420215579538</v>
+        <v>1.181446694598268</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.322347943217903</v>
+        <v>-4.885343150017808</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.506733866054372</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.06651654343351</v>
+        <v>-19.12420441310804</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9258325739164086</v>
+        <v>1.047617174950144</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.279287359171466</v>
+        <v>-4.875458461372304</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.323096991834299</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.44452742002879</v>
+        <v>-18.38344191832318</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8398423288519518</v>
+        <v>0.9666412818740687</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.274521760937078</v>
+        <v>-4.865560680423959</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.176752941830632</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.0011434919909</v>
+        <v>-17.937020576026</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8332176236140384</v>
+        <v>1.028882089583634</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.249161970332654</v>
+        <v>-4.91858450693295</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.064014614832652</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.41531530903502</v>
+        <v>-17.33155393880753</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8177687062608016</v>
+        <v>0.9727815719068382</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.286108448952006</v>
+        <v>-4.837516967736982</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.98662149848596</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.86127523737886</v>
+        <v>-16.77848269756166</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6790819422583974</v>
+        <v>0.8495437252576707</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.275791714312725</v>
+        <v>-4.96507527432392</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.946110928530451</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.31935863815413</v>
+        <v>-16.20163583435521</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4478325971649898</v>
+        <v>0.5627306469039778</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.154439159272767</v>
+        <v>-4.903711650904749</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.934857031053232</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.57389600664909</v>
+        <v>-15.42019555464111</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4725246803244852</v>
+        <v>0.5284811826700224</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.076762526512805</v>
+        <v>-4.728955592573389</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.956285741872584</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.99516385183343</v>
+        <v>-14.91738566400462</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3995481842847041</v>
+        <v>0.4481729970388747</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.003890768895758</v>
+        <v>-4.731848991501411</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.002066499943971</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.35595835019184</v>
+        <v>-14.37230072749219</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6197476257796948</v>
+        <v>0.6042856161236163</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.02369942309529</v>
+        <v>-4.745857755542058</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.066691910528714</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.7958696346228</v>
+        <v>-13.68360632110888</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4797385391902763</v>
+        <v>0.4513413343265724</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.233699960676576</v>
+        <v>-5.034320464053809</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.147177771575013</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.14685799815275</v>
+        <v>-13.06723379562325</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3271084726614337</v>
+        <v>0.4281024967825086</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.379011429916893</v>
+        <v>-5.176371949886536</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.232099647444061</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.81617261297644</v>
+        <v>-12.77337705834071</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3812713295176545</v>
+        <v>0.4249865287061778</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.531340373480377</v>
+        <v>-5.293836090982502</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.321342561591687</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.18607935411269</v>
+        <v>-12.31315642884836</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2306705699292795</v>
+        <v>0.2548258686722641</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.747428831883065</v>
+        <v>-5.573422218167563</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.406691636064774</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.742760887589</v>
+        <v>-11.91645965274406</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2315215696139917</v>
+        <v>0.3573647845286627</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.091952781163086</v>
+        <v>-6.02403309737409</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.481873844085828</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.18641657063269</v>
+        <v>-11.43713735340563</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2033469338985972</v>
+        <v>0.3044849733509311</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.254323521006174</v>
+        <v>-6.219684471040845</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.545257455821962</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.934690863894826</v>
+        <v>-11.1400860942297</v>
       </c>
       <c r="F60" t="n">
-        <v>0.08168016359043687</v>
+        <v>0.2037527952866907</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.304336117861567</v>
+        <v>-6.203594030848364</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.587766469763717</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.544343854668762</v>
+        <v>-10.83888457505295</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02992629045709371</v>
+        <v>0.2820054893716875</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.466405734739294</v>
+        <v>-6.379384381104219</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.611035715799551</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.14466203351655</v>
+        <v>-10.50743983631182</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.160592900495704</v>
+        <v>0.1131278750162629</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.80095334925392</v>
+        <v>-6.696061002239889</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.61076592370594</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.762445344355198</v>
+        <v>-10.22795844754949</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.21077569728804</v>
+        <v>0.1421142335078444</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.793202705971618</v>
+        <v>-6.606326358562699</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.584793462060077</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.536079428221754</v>
+        <v>-9.998777686305074</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2260805993100178</v>
+        <v>0.17530322121162</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.897063944415031</v>
+        <v>-6.774313696324886</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.535436939441242</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.476155958115175</v>
+        <v>-9.957746409199105</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3936097064727446</v>
+        <v>0.01132212811900097</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.021912144313731</v>
+        <v>-6.869573291801285</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.457463841141343</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.295940409498815</v>
+        <v>-9.77499095383145</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4674764791057631</v>
+        <v>-0.0406935910711767</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.130696088625633</v>
+        <v>-6.992510015485093</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.354337807995036</v>
       </c>
       <c r="E67" t="n">
-        <v>-8.253586809805832</v>
+        <v>-9.822254167090081</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6771758937216895</v>
+        <v>-0.3414761565569914</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.966623349413122</v>
+        <v>-6.894605774834665</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.22343810323573</v>
       </c>
       <c r="E68" t="n">
-        <v>-8.177245591935726</v>
+        <v>-9.736787614139294</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.8103900751362523</v>
+        <v>-0.3726882065316663</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.803794378970575</v>
+        <v>-6.713264288173918</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.063883215559951</v>
       </c>
       <c r="E69" t="n">
-        <v>-8.038899227807207</v>
+        <v>-9.661074826805592</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8869014929432993</v>
+        <v>-0.3956521057160539</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.712685043495003</v>
+        <v>-6.481098481881589</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.879533948751229</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.064062633869005</v>
+        <v>-9.624429471151601</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.180352368837748</v>
+        <v>-0.6987912857133792</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.707696876112306</v>
+        <v>-6.608499680834425</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.6697705939719</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.972233221737138</v>
+        <v>-9.516064480530634</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.113686362767678</v>
+        <v>-0.664005037062913</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.580439692490728</v>
+        <v>-6.358292681226199</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.443314788408229</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.116746060504111</v>
+        <v>-9.642470664467499</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.197045054960948</v>
+        <v>-0.7265338754349968</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.602840622652921</v>
+        <v>-6.523596096905832</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.20372582047769</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.316063278966547</v>
+        <v>-9.800481667464291</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.20411489849548</v>
+        <v>-0.6783149240689197</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.483242436193754</v>
+        <v>-6.326164170052603</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.956181511687682</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.761476513944912</v>
+        <v>-10.08792317635439</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.22800835118163</v>
+        <v>-0.7564105105198157</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.528790557780119</v>
+        <v>-6.31688172733782</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.708304287731219</v>
       </c>
       <c r="E75" t="n">
-        <v>-9.180665866331296</v>
+        <v>-10.29719054497654</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.277431794409146</v>
+        <v>-0.7906468824509293</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.445052188804438</v>
+        <v>-6.208071598420234</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.46135465649135</v>
       </c>
       <c r="E76" t="n">
-        <v>-9.466968344874161</v>
+        <v>-10.50423222211559</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.338049156566338</v>
+        <v>-0.8971527660683709</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.336582459760738</v>
+        <v>-6.08819847360139</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.223035809566764</v>
       </c>
       <c r="E77" t="n">
-        <v>-10.19373516792122</v>
+        <v>-11.13310789681506</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.292959265579433</v>
+        <v>-0.7706156591030885</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.244137709395311</v>
+        <v>-6.00339962809553</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.995147395973367</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.02784578196759</v>
+        <v>-11.91983746687722</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.492197930224821</v>
+        <v>-0.9828549804703097</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.187068361308227</v>
+        <v>-5.840767042195609</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.779378350090731</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.84391520269805</v>
+        <v>-12.48979777878893</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.460239618988167</v>
+        <v>-0.946327455541894</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.053487595414095</v>
+        <v>-5.690454313269752</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.578711594592906</v>
       </c>
       <c r="E80" t="n">
-        <v>-12.31237089067785</v>
+        <v>-12.87926760372459</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.49681951312795</v>
+        <v>-1.076622053422752</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.935971085106762</v>
+        <v>-5.516025562509435</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.390382519547599</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.09572264660685</v>
+        <v>-13.59086044777809</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.498992835399676</v>
+        <v>-1.062587104776421</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.698804019128895</v>
+        <v>-5.218110211345959</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.217221201290402</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.07697765229138</v>
+        <v>-14.50270006379578</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.519940519946438</v>
+        <v>-1.149585457159691</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.484221175553004</v>
+        <v>-5.084647276177403</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.058901097291193</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.02908919185022</v>
+        <v>-15.40134263854902</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.573697515414565</v>
+        <v>-1.239778331436342</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.382939120769412</v>
+        <v>-4.993537940701832</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.9158852237244713</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.0522788435368</v>
+        <v>-16.29446026150305</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.594527369235752</v>
+        <v>-1.266512813839147</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.254202506926719</v>
+        <v>-4.89279267033475</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.7923135003075776</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.09134945857039</v>
+        <v>-17.23494583613844</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.545889464178739</v>
+        <v>-1.308800952017922</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.984069022393385</v>
+        <v>-4.673077644044903</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.6888192847757443</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.33908519629541</v>
+        <v>-18.39656040577059</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.607462564443377</v>
+        <v>-1.359585994740977</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.87669904678839</v>
+        <v>-4.519727500859766</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.6102965846759741</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.61224618613906</v>
+        <v>-19.58196368966615</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.392408397965185</v>
+        <v>-1.207846204805372</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.629830584404803</v>
+        <v>-4.360302529156067</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5609336716521583</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.08244633375069</v>
+        <v>-20.97993360249997</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.349452552341481</v>
+        <v>-1.244124975979795</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.582109140546711</v>
+        <v>-4.408429834402252</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5427929217803193</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.71383891394965</v>
+        <v>-22.60231867834382</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.427692154123636</v>
+        <v>-1.3811490175213</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.542387093724914</v>
+        <v>-4.42373473642423</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.5619574083490467</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.48593447278864</v>
+        <v>-24.22937770630217</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.154652178359439</v>
+        <v>-1.192318733635085</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.550975644389087</v>
+        <v>-4.531314188874693</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.61926666215918</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.22893893471331</v>
+        <v>-25.92866696903832</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.070848347869551</v>
+        <v>-1.179671569089978</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.451578881214703</v>
+        <v>-4.418825122858583</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.7165281864338314</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.28280703531193</v>
+        <v>-27.89655791687533</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.069316548437069</v>
+        <v>-1.269065812893283</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.709628170225123</v>
+        <v>-4.667709799879795</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.8560345114274988</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.16023017051261</v>
+        <v>-29.73806886538115</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.159470145805194</v>
+        <v>-1.40868213039745</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.659510834946996</v>
+        <v>-4.669045214769652</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.034269393945021</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.2296519268872</v>
+        <v>-31.67943480766082</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9343349061388729</v>
+        <v>-1.212624895342602</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.837775630439938</v>
+        <v>-4.843984565340794</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.251887333411619</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.15723167427453</v>
+        <v>-33.54572948544602</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.030602608934085</v>
+        <v>-1.387642799730796</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.737462406066633</v>
+        <v>-4.820078020351803</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.506631308653283</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.35922608922444</v>
+        <v>-35.72500875496554</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.005753418140489</v>
+        <v>-1.480990918992303</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.969680581570328</v>
+        <v>-5.096993317757152</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.789522758082613</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.6862127194043</v>
+        <v>-38.05291184634433</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.9579926973738719</v>
+        <v>-1.552527261719495</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.1912547148637</v>
+        <v>-5.242605909962829</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.101266537612444</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.97603030181651</v>
+        <v>-40.28619686508596</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.8898734456883712</v>
+        <v>-1.558065305821545</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.320305543974594</v>
+        <v>-5.447356434104583</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.419745816425483</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.06783989605044</v>
+        <v>-42.41431141510001</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.097150784278578</v>
+        <v>-1.771456749838838</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.628053214572207</v>
+        <v>-5.712383920529644</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.749307863297109</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.47084043652937</v>
+        <v>-44.74337972143171</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.9167781280281183</v>
+        <v>-1.643322381926865</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.778352851195222</v>
+        <v>-5.872450415072586</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.051630357791192</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.68912167621439</v>
+        <v>-47.09581778833589</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.008463524828726</v>
+        <v>-1.853205088782575</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.296677120699157</v>
+        <v>-6.361788326084939</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.350151706436876</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.05856664450997</v>
+        <v>-49.45797034394863</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.15882862296595</v>
+        <v>-2.06547059475548</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.656728541149466</v>
+        <v>-6.682523561101545</v>
       </c>
     </row>
   </sheetData>
